--- a/biology/Botanique/Château_de_Barbirey/Château_de_Barbirey.xlsx
+++ b/biology/Botanique/Château_de_Barbirey/Château_de_Barbirey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Barbirey</t>
+          <t>Château_de_Barbirey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le château de Barbirey est un château situé sur la commune de Barbirey-sur-Ouche dans la Côte-d'Or[2].
+Le château de Barbirey est un château situé sur la commune de Barbirey-sur-Ouche dans la Côte-d'Or.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Barbirey</t>
+          <t>Château_de_Barbirey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La terre de Barbirey dépendait depuis le Moyen Âge de la baronnie de Marigny.
 Au XVIIIe siècle, le banquier Jean Paris de Monmartel, acquiert la terre Marigny. À son décès, son fils, le marquis de Brunoy, fait reconstruire le logis actuel.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Barbirey</t>
+          <t>Château_de_Barbirey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Barbirey</t>
+          <t>Château_de_Barbirey</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,10 +587,12 @@
           <t>Parc et jardins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le domaine fait l’objet d’une inscription au titre des monuments historiques depuis le 29 décembre 2005[3].
-Le parc de 8 hectares a obtenu le label jardin remarquable[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le domaine fait l’objet d’une inscription au titre des monuments historiques depuis le 29 décembre 2005.
+Le parc de 8 hectares a obtenu le label jardin remarquable.
 </t>
         </is>
       </c>
